--- a/Documentation/Scénarios/Scénarios BN.xlsx
+++ b/Documentation/Scénarios/Scénarios BN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developpement\Bataille-Navale-2021\Documentation\Scénarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlindo.TAVARES-VARE\Bataille-Navale-2021\Documentation\Scénarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7488" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scénario Jouer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>identifiant+ titre</t>
   </si>
@@ -214,6 +214,15 @@
   <si>
     <t>affichage des 10 meilleurs 
 scores</t>
+  </si>
+  <si>
+    <t>Affichage de l'aide</t>
+  </si>
+  <si>
+    <t>m'authentifier</t>
+  </si>
+  <si>
+    <t>être reconnu (liste scores)</t>
   </si>
 </sst>
 </file>
@@ -668,19 +677,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,22 +976,22 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
@@ -1074,7 +1083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
@@ -1103,27 +1112,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1141,41 +1150,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1190,12 +1199,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="1" t="s">
@@ -1205,12 +1214,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26" t="s">
@@ -1220,7 +1229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1248,38 +1257,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
@@ -1290,9 +1299,11 @@
         <v>51</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +1314,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1325,7 @@
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
@@ -1338,17 +1349,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1402,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1413,7 @@
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
@@ -1413,8 +1424,8 @@
       <c r="F6" s="14"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J9" s="37"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1429,33 +1440,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" customWidth="1"/>
+    <col min="5" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -1487,7 +1498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1513,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
